--- a/OnBoard/output/trust/bio/Bio_Trust_45BIS.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_45BIS.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F3">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F8">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1105,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1152,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F17">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1199,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1246,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1293,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1340,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F21">
@@ -1387,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F22">
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -1434,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F23">
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F24">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1528,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F25">
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1575,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F26">
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1622,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1637,12 +1637,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F27">
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1669,7 +1669,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F28">
@@ -1699,19 +1699,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I28">
-        <v>94</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
@@ -1721,7 +1716,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1736,12 +1731,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F29">
@@ -1751,19 +1746,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I29">
-        <v>96</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L29">
@@ -1773,7 +1763,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1788,12 +1778,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F30">
@@ -1803,19 +1793,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I30">
-        <v>147</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
@@ -1825,7 +1810,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1840,12 +1825,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F31">
@@ -1855,19 +1840,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L31">
@@ -1877,7 +1862,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1897,7 +1882,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F32">
@@ -1907,14 +1892,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L32">
@@ -1924,7 +1914,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1954,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="I33">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1966,7 +1956,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L33">
@@ -1976,7 +1966,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1991,12 +1981,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F34">
@@ -2006,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2023,7 +2013,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2038,12 +2028,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F35">
@@ -2053,14 +2043,14 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L35">
@@ -2070,7 +2060,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2085,12 +2075,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F36">
@@ -2100,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2117,7 +2107,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2132,12 +2122,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F37">
@@ -2147,14 +2137,14 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L37">
@@ -2164,7 +2154,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2179,12 +2169,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F38">
@@ -2194,14 +2184,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L38">
@@ -2211,7 +2206,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2226,7 +2221,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2241,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -2258,7 +2253,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2273,12 +2268,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F40">
@@ -2288,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -2305,7 +2300,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2320,12 +2315,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F41">
@@ -2335,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I41">
         <v>-1</v>
@@ -2352,7 +2347,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2367,12 +2362,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F42">
@@ -2382,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -2399,7 +2394,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2414,12 +2409,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F43">
@@ -2429,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2446,7 +2441,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2461,12 +2456,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F44">
@@ -2476,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2493,7 +2488,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2508,12 +2503,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F45">
@@ -2523,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2540,7 +2535,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2555,12 +2550,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F46">
@@ -2570,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2587,7 +2582,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2602,12 +2597,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F47">
@@ -2617,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2634,7 +2629,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2649,12 +2644,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F48">
@@ -2664,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I48">
         <v>-1</v>
@@ -2681,7 +2676,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2696,12 +2691,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ALLOMED</t>
         </is>
       </c>
       <c r="F49">
@@ -2711,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I49">
         <v>-1</v>
@@ -2728,7 +2723,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2743,12 +2738,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F50">
@@ -2758,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <v>-1</v>
@@ -2775,7 +2770,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2790,12 +2785,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F51">
@@ -2805,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I51">
         <v>-1</v>
@@ -2822,7 +2817,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2837,12 +2832,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F52">
@@ -2852,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>-1</v>
@@ -2869,7 +2864,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2884,12 +2879,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F53">
@@ -2899,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I53">
         <v>-1</v>
@@ -2916,7 +2911,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2931,12 +2926,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F54">
@@ -2946,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I54">
         <v>-1</v>
@@ -2963,7 +2958,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2978,12 +2973,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F55">
@@ -2993,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I55">
         <v>-1</v>
@@ -3010,7 +3005,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3025,12 +3020,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F56">
@@ -3040,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I56">
         <v>-1</v>
@@ -3057,7 +3052,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3072,12 +3067,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F57">
@@ -3087,14 +3082,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L57">
@@ -3104,7 +3104,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F58">
@@ -3134,14 +3134,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L58">
@@ -3151,7 +3156,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3166,12 +3171,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F59">
@@ -3181,14 +3186,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L59">
@@ -3198,7 +3208,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3213,12 +3223,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F60">
@@ -3228,34 +3238,24 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="I60">
-        <v>610</v>
+        <v>-1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L60">
-        <v>2</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>SS7752</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3285,19 +3285,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I61">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L61">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>SS7753</t>
+          <t>SS8238</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3342,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="I62">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3362,14 +3362,14 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>SS7754</t>
+          <t>SS8239</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3399,19 +3399,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I63">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L63">
@@ -3419,7 +3419,235 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SS7755</t>
+          <t>SS8240</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SLO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>45bis</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>268</v>
+      </c>
+      <c r="I64">
+        <v>164</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
+        </is>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>SS8241</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SLO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>45bis</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>290</v>
+      </c>
+      <c r="I65">
+        <v>205</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>SS8242</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SLO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>45bis</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>261</v>
+      </c>
+      <c r="I66">
+        <v>149</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>SS8243</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SLO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>45bis</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>311</v>
+      </c>
+      <c r="I67">
+        <v>284</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
+        </is>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>SS8244</t>
         </is>
       </c>
     </row>
